--- a/DMSNewVSale_2025-10-25_17-17.xlsx
+++ b/DMSNewVSale_2025-10-25_17-17.xlsx
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD  DROPS</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -1604,24 +1610,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1630,14 +1636,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1647,14 +1653,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1663,14 +1669,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1680,14 +1686,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1696,14 +1702,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1713,14 +1719,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,14 +1735,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1746,14 +1752,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,14 +1768,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1779,11 +1785,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>11</v>
@@ -1802,7 +1808,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,11 +1818,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>11</v>
@@ -1828,14 +1834,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1845,11 +1851,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>11</v>
@@ -1861,14 +1867,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1878,14 +1884,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1894,14 +1900,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1911,11 +1917,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1927,14 +1933,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1944,11 +1950,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -1960,14 +1966,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1977,14 +1983,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1993,14 +1999,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2010,11 +2016,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>11</v>
@@ -2026,14 +2032,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2043,14 +2049,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2066,7 +2072,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2076,14 +2082,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,14 +2098,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2109,11 +2115,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>11</v>
@@ -2125,14 +2131,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2142,11 +2148,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>11</v>
@@ -2158,31 +2164,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2231,7 +2237,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2241,11 +2247,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>11</v>
@@ -2264,7 +2270,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2274,14 +2280,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2290,14 +2296,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2307,14 +2313,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2323,14 +2329,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2340,14 +2346,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,14 +2379,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>11</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2389,14 +2395,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2406,51 +2412,84 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="25.5" customHeight="1">
-      <c r="N48" s="13">
-        <v>2082.5599999999999</v>
-      </c>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>138</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>139</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>87</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>23</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>31</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="26.25" customHeight="1">
+      <c r="N49" s="13">
+        <v>2127.5599999999999</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>140</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>141</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>142</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2664,10 +2703,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
